--- a/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
+++ b/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:17:34+00:00</t>
+    <t>2024-07-03T22:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
+++ b/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T22:37:23+00:00</t>
+    <t>2024-09-27T21:23:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
+++ b/master/StructureDefinition-bc-organization-clinic-service-delivery-type-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T21:23:15+00:00</t>
+    <t>2024-10-18T22:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
